--- a/汇总分析结果.xlsx
+++ b/汇总分析结果.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\数模校赛2024\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B131CAC5-141D-447F-B07C-980EFA977820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>文件标签</t>
   </si>
@@ -35,6 +41,15 @@
   </si>
   <si>
     <t>年标准差</t>
+  </si>
+  <si>
+    <t>夏普比率</t>
+  </si>
+  <si>
+    <t>索提诺比率</t>
+  </si>
+  <si>
+    <t>信息比率</t>
   </si>
   <si>
     <t>200401_200407_过热_现金</t>
@@ -196,15 +211,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.###############"/>
+    <numFmt numFmtId="176" formatCode="0.###############"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -212,8 +227,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -254,23 +276,31 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -308,7 +338,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -342,6 +372,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -376,9 +407,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,17 +583,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="20.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,1204 +621,1682 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
-        <v>5.262677531106815E-05</v>
+        <v>5.2626775311068148E-5</v>
       </c>
       <c r="C2" s="1">
-        <v>0.01939393319617189</v>
+        <v>1.939393319617189E-2</v>
       </c>
       <c r="D2" s="1">
-        <v>4.561570250854606E-09</v>
+        <v>4.5615702508546059E-9</v>
       </c>
       <c r="E2" s="1">
-        <v>1.664973141561931E-06</v>
+        <v>1.664973141561931E-6</v>
       </c>
       <c r="F2" s="1">
-        <v>6.753939776792955E-05</v>
+        <v>1.2903383825810699E-3</v>
       </c>
       <c r="G2" s="1">
-        <v>0.00129033838258107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.2903383825810699E-3</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.8552755064011111</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.661611146301762</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-4.1296028224117397E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>0.0007357471896541729</v>
+        <v>7.3574718965417293E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>0.3079342458799728</v>
+        <v>0.30793424587997281</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0001895477785203569</v>
+        <v>1.8954777852035691E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>0.06918493915993025</v>
+        <v>6.918493915993025E-2</v>
       </c>
       <c r="F3" s="1">
-        <v>0.01376763518257064</v>
+        <v>0.2630303008399037</v>
       </c>
       <c r="G3" s="1">
         <v>0.2630303008399037</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1">
+        <v>1.1060864278790949</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1.6851538608391481</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.1244248962422734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1">
-        <v>-0.0008597566542973144</v>
+        <v>-8.5975665429731439E-4</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.2694416373098198</v>
+        <v>-0.26944163730981979</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0001048435143776026</v>
+        <v>1.048435143776026E-4</v>
       </c>
       <c r="E4" s="1">
-        <v>0.03826788274782495</v>
+        <v>3.8267882747824951E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>0.01023931220236997</v>
+        <v>0.1956217849520471</v>
       </c>
       <c r="G4" s="1">
         <v>0.1956217849520471</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="1">
+        <v>-1.4642624663711949</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-2.195855464246554</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-0.20422501013844441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.0002510269079501898</v>
+        <v>-2.5102690795018981E-4</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.08756307889817549</v>
+        <v>-8.7563078898175495E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>7.925101948827025E-05</v>
+        <v>7.9251019488270255E-5</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02892662211321864</v>
+        <v>2.8926622113218638E-2</v>
       </c>
       <c r="F5" s="1">
-        <v>0.008902304167364214</v>
+        <v>0.1700782823091139</v>
       </c>
       <c r="G5" s="1">
         <v>0.1700782823091139</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="1">
+        <v>-0.61479383186698799</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.83918107716025192</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.1020440848653201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6" s="1">
-        <v>6.499581678211609E-05</v>
+        <v>6.4995816782116087E-5</v>
       </c>
       <c r="C6" s="1">
-        <v>0.02400632381174539</v>
+        <v>2.4006323811745389E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>4.906651796373939E-09</v>
+        <v>4.9066517963739392E-9</v>
       </c>
       <c r="E6" s="1">
-        <v>1.790927905676488E-06</v>
+        <v>1.7909279056764879E-6</v>
       </c>
       <c r="F6" s="1">
-        <v>7.00474967173984E-05</v>
+        <v>1.3382555457297711E-3</v>
       </c>
       <c r="G6" s="1">
-        <v>0.001338255545729771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1.3382555457297711E-3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.2354154885453754</v>
+      </c>
+      <c r="I6" s="1">
+        <v>18.351625202401689</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-3.8666980856096329E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1">
-        <v>0.0004469446310836055</v>
+        <v>4.4694463108360552E-4</v>
       </c>
       <c r="C7" s="1">
         <v>0.1771524511658171</v>
       </c>
       <c r="D7" s="1">
-        <v>0.0001582900380835845</v>
+        <v>1.5829003808358449E-4</v>
       </c>
       <c r="E7" s="1">
-        <v>0.05777586390050834</v>
+        <v>5.7775863900508338E-2</v>
       </c>
       <c r="F7" s="1">
-        <v>0.01258133689571917</v>
+        <v>0.2403661038926003</v>
       </c>
       <c r="G7" s="1">
         <v>0.2403661038926003</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="1">
+        <v>0.66628550603531</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.022603420832662</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.9015188591040128E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>1.639348463569564E-05</v>
+        <v>1.6393484635695639E-5</v>
       </c>
       <c r="C8" s="1">
-        <v>0.006001510176987912</v>
+        <v>6.001510176987912E-3</v>
       </c>
       <c r="D8" s="1">
-        <v>0.0001371957321053713</v>
+        <v>1.3719573210537131E-4</v>
       </c>
       <c r="E8" s="1">
-        <v>0.05007644221846054</v>
+        <v>5.007644221846054E-2</v>
       </c>
       <c r="F8" s="1">
-        <v>0.01171305818756875</v>
+        <v>0.22377766246535991</v>
       </c>
       <c r="G8" s="1">
-        <v>0.2237776624653599</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.22377766246535991</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-4.9149185409489309E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-6.9903082609947279E-2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-4.8925474692906389E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>0.0006052033975129837</v>
+        <v>6.052033975129837E-4</v>
       </c>
       <c r="C9" s="1">
-        <v>0.2471144248150003</v>
+        <v>0.24711442481500029</v>
       </c>
       <c r="D9" s="1">
-        <v>6.154184706815027E-05</v>
+        <v>6.1541847068150268E-5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02246277417987485</v>
+        <v>2.2462774179874849E-2</v>
       </c>
       <c r="F9" s="1">
-        <v>0.007844861188583917</v>
+        <v>0.14987586256590771</v>
       </c>
       <c r="G9" s="1">
-        <v>0.1498758625659077</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.14987586256590771</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.5353668087401859</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2.1226147605713539</v>
+      </c>
+      <c r="J9" s="1">
+        <v>8.9299972004710931E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1">
-        <v>7.5458860461953E-05</v>
+        <v>7.5458860461953E-5</v>
       </c>
       <c r="C10" s="1">
-        <v>0.02792421650107202</v>
+        <v>2.7924216501072019E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>1.073805348883323E-08</v>
+        <v>1.0738053488833229E-8</v>
       </c>
       <c r="E10" s="1">
-        <v>3.91938952342413E-06</v>
+        <v>3.9193895234241301E-6</v>
       </c>
       <c r="F10" s="1">
-        <v>0.0001036245795592592</v>
+        <v>1.979744812702923E-3</v>
       </c>
       <c r="G10" s="1">
-        <v>0.001979744812702923</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.979744812702923E-3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5.5179922336340468</v>
+      </c>
+      <c r="I10" s="1">
+        <v>21.507264165604319</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-3.6433220128693412E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
-        <v>0.0005741353987569012</v>
+        <v>5.7413539875690123E-4</v>
       </c>
       <c r="C11" s="1">
-        <v>0.2330604944851269</v>
+        <v>0.23306049448512689</v>
       </c>
       <c r="D11" s="1">
-        <v>0.0001328316608009979</v>
+        <v>1.3283166080099791E-4</v>
       </c>
       <c r="E11" s="1">
-        <v>0.04848355619236425</v>
+        <v>4.8483556192364247E-2</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01152526185390154</v>
+        <v>0.2201898185483703</v>
       </c>
       <c r="G11" s="1">
         <v>0.2201898185483703</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="1">
+        <v>0.9812465258817753</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1.367518681937502</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.1196995876501227E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>0.001626217112977412</v>
+        <v>1.626217112977412E-3</v>
       </c>
       <c r="C12" s="1">
-        <v>0.8095661720777094</v>
+        <v>0.80956617207770942</v>
       </c>
       <c r="D12" s="1">
-        <v>0.0003861825250238113</v>
+        <v>3.8618252502381132E-4</v>
       </c>
       <c r="E12" s="1">
         <v>0.1409566216336911</v>
       </c>
       <c r="F12" s="1">
-        <v>0.019651527294941</v>
+        <v>0.37544190180864351</v>
       </c>
       <c r="G12" s="1">
-        <v>0.3754419018086435</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.37544190180864351</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.1110221535199529</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.7658631992711631</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.41599424607310143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" s="1">
-        <v>0.0003680062296002008</v>
+        <v>3.6800622960020082E-4</v>
       </c>
       <c r="C13" s="1">
-        <v>0.1437331029818738</v>
+        <v>0.14373310298187381</v>
       </c>
       <c r="D13" s="1">
-        <v>0.0001110258963182657</v>
+        <v>1.110258963182657E-4</v>
       </c>
       <c r="E13" s="1">
-        <v>0.04052445215616698</v>
+        <v>4.0524452156166978E-2</v>
       </c>
       <c r="F13" s="1">
-        <v>0.01053688266605763</v>
+        <v>0.201306860678336</v>
       </c>
       <c r="G13" s="1">
         <v>0.201306860678336</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="1">
+        <v>0.62955183223674605</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.79706411341434902</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2.982018648993922E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
-        <v>7.964153162675815E-05</v>
+        <v>7.9641531626758151E-5</v>
       </c>
       <c r="C14" s="1">
-        <v>0.029494599322335</v>
+        <v>2.9494599322334999E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>3.332326710647459E-09</v>
+        <v>3.3323267106474589E-9</v>
       </c>
       <c r="E14" s="1">
-        <v>1.216299249386322E-06</v>
+        <v>1.216299249386322E-6</v>
       </c>
       <c r="F14" s="1">
-        <v>5.772630865253259E-05</v>
+        <v>1.102859578272013E-3</v>
       </c>
       <c r="G14" s="1">
-        <v>0.001102859578272013</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.102859578272013E-3</v>
+      </c>
+      <c r="H14" s="1">
+        <v>11.32927488548618</v>
+      </c>
+      <c r="I14" s="1">
+        <v>34.412031664416602</v>
+      </c>
+      <c r="J14" s="1">
+        <v>-3.5537729139358022E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
-        <v>-0.0007918399519481542</v>
+        <v>-7.9183995194815422E-4</v>
       </c>
       <c r="C15" s="1">
-        <v>-0.2510897074930311</v>
+        <v>-0.25108970749303111</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0003523018370728574</v>
+        <v>3.5230183707285739E-4</v>
       </c>
       <c r="E15" s="1">
-        <v>0.1285901705315929</v>
+        <v>0.12859017053159291</v>
       </c>
       <c r="F15" s="1">
-        <v>0.01876970530063958</v>
+        <v>0.35859471626279288</v>
       </c>
       <c r="G15" s="1">
-        <v>0.3585947162627929</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>0.35859471626279288</v>
+      </c>
+      <c r="H15" s="1">
+        <v>-0.74761198460203737</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-1.4717696143547569</v>
+      </c>
+      <c r="J15" s="1">
+        <v>-0.1939893653459264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>-0.003530656153989931</v>
+        <v>-3.5306561539899311E-3</v>
       </c>
       <c r="C16" s="1">
-        <v>-0.7249960519600571</v>
+        <v>-0.72499605196005712</v>
       </c>
       <c r="D16" s="1">
-        <v>0.0005610037713825222</v>
+        <v>5.6100377138252222E-4</v>
       </c>
       <c r="E16" s="1">
         <v>0.2047663765546206</v>
       </c>
       <c r="F16" s="1">
-        <v>0.02368551817846767</v>
+        <v>0.45251118942477059</v>
       </c>
       <c r="G16" s="1">
-        <v>0.4525111894247706</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.45251118942477059</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.6397297333205789</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-2.4260859665057191</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-0.44888722638814232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1">
-        <v>0.0006102268334836297</v>
+        <v>6.1022683348362972E-4</v>
       </c>
       <c r="C17" s="1">
-        <v>0.2494017829131789</v>
+        <v>0.24940178291317891</v>
       </c>
       <c r="D17" s="1">
-        <v>0.000135930600115076</v>
+        <v>1.3593060011507599E-4</v>
       </c>
       <c r="E17" s="1">
-        <v>0.04961466904200273</v>
+        <v>4.9614669042002728E-2</v>
       </c>
       <c r="F17" s="1">
-        <v>0.0116589279144815</v>
+        <v>0.2227435050500973</v>
       </c>
       <c r="G17" s="1">
         <v>0.2227435050500973</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="1">
+        <v>1.0433605364201719</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1.5667506201238739</v>
+      </c>
+      <c r="J17" s="1">
+        <v>9.0619268159764274E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1">
-        <v>7.561850666720187E-05</v>
+        <v>7.5618506667201867E-5</v>
       </c>
       <c r="C18" s="1">
-        <v>0.02798411175492821</v>
+        <v>2.7984111754928209E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>1.112060737463719E-08</v>
+        <v>1.112060737463719E-8</v>
       </c>
       <c r="E18" s="1">
-        <v>4.059021691742575E-06</v>
+        <v>4.0590216917425748E-6</v>
       </c>
       <c r="F18" s="1">
-        <v>0.0001054542904515373</v>
+        <v>2.0147013902170651E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>0.002014701390217065</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>2.0147013902170651E-3</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5.4519800344927409</v>
+      </c>
+      <c r="I18" s="1">
+        <v>14.95532392119134</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-3.6399067162032589E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1">
-        <v>-0.002143456870084604</v>
+        <v>-2.1434568700846039E-3</v>
       </c>
       <c r="C19" s="1">
-        <v>-0.5430592000250867</v>
+        <v>-0.54305920002508667</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0006480101179306758</v>
+        <v>6.4801011793067583E-4</v>
       </c>
       <c r="E19" s="1">
         <v>0.2365236930446967</v>
       </c>
       <c r="F19" s="1">
-        <v>0.02545604285686752</v>
+        <v>0.4863370159104658</v>
       </c>
       <c r="G19" s="1">
         <v>0.4863370159104658</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="1">
+        <v>-1.151586619366421</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-1.4085142319641819</v>
+      </c>
+      <c r="J19" s="1">
+        <v>-0.35404508897974241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B20" s="1">
-        <v>0.0001576764571355964</v>
+        <v>1.576764571355964E-4</v>
       </c>
       <c r="C20" s="1">
-        <v>0.05923544549281323</v>
+        <v>5.9235445492813232E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>0.0006993537679785989</v>
+        <v>6.993537679785989E-4</v>
       </c>
       <c r="E20" s="1">
-        <v>0.2552641253121886</v>
+        <v>0.25526412531218862</v>
       </c>
       <c r="F20" s="1">
-        <v>0.02644529765343168</v>
+        <v>0.50523670226161188</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5052367022616119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.50523670226161188</v>
+      </c>
+      <c r="H20" s="1">
+        <v>8.3595362933359688E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.1063079828259354</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-1.8533592757897802E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1">
-        <v>0.0003818352343018374</v>
+        <v>3.8183523430183739E-4</v>
       </c>
       <c r="C21" s="1">
-        <v>0.1495186150488605</v>
+        <v>0.14951861504886049</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0002994914335102514</v>
+        <v>2.9949143351025139E-4</v>
       </c>
       <c r="E21" s="1">
         <v>0.1093143732312418</v>
       </c>
       <c r="F21" s="1">
-        <v>0.01730582079851318</v>
+        <v>0.33062724211903921</v>
       </c>
       <c r="G21" s="1">
-        <v>0.3306272421190392</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.33062724211903921</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.40080972819882899</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.59058324306266208</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3.3140883158633158E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B22" s="1">
-        <v>3.972239378771549E-05</v>
+        <v>3.9722393787715493E-5</v>
       </c>
       <c r="C22" s="1">
-        <v>0.01460399715515881</v>
+        <v>1.460399715515881E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>7.242647855557206E-10</v>
+        <v>7.2426478555572057E-10</v>
       </c>
       <c r="E22" s="1">
-        <v>2.64356646727838E-07</v>
+        <v>2.6435664672783802E-7</v>
       </c>
       <c r="F22" s="1">
-        <v>2.691216798319527E-05</v>
+        <v>5.1415624738773529E-4</v>
       </c>
       <c r="G22" s="1">
-        <v>0.0005141562473877353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>5.1415624738773529E-4</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-4.6600675514778267</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-18.603068820193808</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-4.4025496407986059E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
-        <v>-0.000665733116474525</v>
+        <v>-6.6573311647452496E-4</v>
       </c>
       <c r="C23" s="1">
         <v>-0.215786133975849</v>
       </c>
       <c r="D23" s="1">
-        <v>0.0002270792353810511</v>
+        <v>2.2707923538105109E-4</v>
       </c>
       <c r="E23" s="1">
-        <v>0.08288392091408367</v>
+        <v>8.288392091408367E-2</v>
       </c>
       <c r="F23" s="1">
-        <v>0.01506914846237342</v>
+        <v>0.28789567713684711</v>
       </c>
       <c r="G23" s="1">
-        <v>0.2878956771368471</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>0.28789567713684711</v>
+      </c>
+      <c r="H23" s="1">
+        <v>-0.80857808040374812</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-1.2086894802221571</v>
+      </c>
+      <c r="J23" s="1">
+        <v>-0.17424816861983239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
-        <v>0.0001897996165356778</v>
+        <v>1.8979961653567781E-4</v>
       </c>
       <c r="C24" s="1">
-        <v>0.07172584303859164</v>
+        <v>7.1725843038591641E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>0.0003816645741992706</v>
+        <v>3.8166457419927058E-4</v>
       </c>
       <c r="E24" s="1">
         <v>0.1393075695827338</v>
       </c>
       <c r="F24" s="1">
-        <v>0.01953623746270685</v>
+        <v>0.37323929265651251</v>
       </c>
       <c r="G24" s="1">
-        <v>0.3732392926565125</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.37323929265651251</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.14662401337512759</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.1685873684707816</v>
+      </c>
+      <c r="J24" s="1">
+        <v>-1.142490295438384E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
-        <v>-0.0002714397270327554</v>
+        <v>-2.714397270327554E-4</v>
       </c>
       <c r="C25" s="1">
-        <v>-0.09433785358611113</v>
+        <v>-9.4337853586111131E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>4.573336199119057E-05</v>
+        <v>4.5733361991190567E-5</v>
       </c>
       <c r="E25" s="1">
-        <v>0.01669267712678456</v>
+        <v>1.6692677126784562E-2</v>
       </c>
       <c r="F25" s="1">
-        <v>0.006762644600390485</v>
+        <v>0.12920014367942689</v>
       </c>
       <c r="G25" s="1">
-        <v>0.1292001436794269</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.12920014367942689</v>
+      </c>
+      <c r="H25" s="1">
+        <v>-0.86174713444873607</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-1.549884241713352</v>
+      </c>
+      <c r="J25" s="1">
+        <v>-0.1058770672323015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
-        <v>5.952907780539476E-05</v>
+        <v>5.9529077805394762E-5</v>
       </c>
       <c r="C26" s="1">
-        <v>0.02196522695556746</v>
+        <v>2.1965226955567459E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>3.445069195873312E-09</v>
+        <v>3.4450691958733119E-9</v>
       </c>
       <c r="E26" s="1">
-        <v>1.257450256493759E-06</v>
+        <v>1.257450256493759E-6</v>
       </c>
       <c r="F26" s="1">
-        <v>5.869471182204843E-05</v>
+        <v>1.121360894847755E-3</v>
       </c>
       <c r="G26" s="1">
-        <v>0.001121360894847755</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>1.121360894847755E-3</v>
+      </c>
+      <c r="H26" s="1">
+        <v>4.4278581305812157</v>
+      </c>
+      <c r="I26" s="1">
+        <v>15.50085461747765</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-3.9830489826755071E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B27" s="1">
-        <v>0.0004208431256689039</v>
+        <v>4.2084312566890389E-4</v>
       </c>
       <c r="C27" s="1">
         <v>0.1659957320111822</v>
       </c>
       <c r="D27" s="1">
-        <v>0.0001528552353894217</v>
+        <v>1.5285523538942171E-4</v>
       </c>
       <c r="E27" s="1">
-        <v>0.05579216091713893</v>
+        <v>5.5792160917138928E-2</v>
       </c>
       <c r="F27" s="1">
-        <v>0.01236346372944984</v>
+        <v>0.23620364289557211</v>
       </c>
       <c r="G27" s="1">
-        <v>0.2362036428955721</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.23620364289557211</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.63079353978064878</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0.76644132887710514</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4.2603552456716633E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B28" s="1">
-        <v>-4.026174000207808E-05</v>
+        <v>-4.0261740002078081E-5</v>
       </c>
       <c r="C28" s="1">
-        <v>-0.01458837425151338</v>
+        <v>-1.4588374251513381E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.0001596854501734581</v>
+        <v>1.5968545017345809E-4</v>
       </c>
       <c r="E28" s="1">
-        <v>0.05828518931331222</v>
+        <v>5.8285189313312218E-2</v>
       </c>
       <c r="F28" s="1">
-        <v>0.01263667085008778</v>
+        <v>0.24142325760645389</v>
       </c>
       <c r="G28" s="1">
-        <v>0.2414232576064539</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.24142325760645389</v>
+      </c>
+      <c r="H28" s="1">
+        <v>-0.13084229980446149</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.17919270561769821</v>
+      </c>
+      <c r="J28" s="1">
+        <v>-6.062823789990858E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
-        <v>0.0007131206813649083</v>
+        <v>7.1312068136490832E-4</v>
       </c>
       <c r="C29" s="1">
-        <v>0.2971846783349403</v>
+        <v>0.29718467833494028</v>
       </c>
       <c r="D29" s="1">
-        <v>7.975013070331371E-05</v>
+        <v>7.9750130703313705E-5</v>
       </c>
       <c r="E29" s="1">
-        <v>0.0291087977067095</v>
+        <v>2.9108797706709499E-2</v>
       </c>
       <c r="F29" s="1">
-        <v>0.008930292867723528</v>
+        <v>0.17061300567866891</v>
       </c>
       <c r="G29" s="1">
-        <v>0.1706130056786689</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.17061300567866891</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1.6422234472712931</v>
+      </c>
+      <c r="I29" s="1">
+        <v>2.2399079016897958</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.11821000695012759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B30" s="1">
-        <v>0.0001067501684413273</v>
+        <v>1.067501684413273E-4</v>
       </c>
       <c r="C30" s="1">
-        <v>0.03973069440428323</v>
+        <v>3.9730694404283229E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>1.337471419471847E-08</v>
+        <v>1.3374714194718471E-8</v>
       </c>
       <c r="E30" s="1">
-        <v>4.881770681072242E-06</v>
+        <v>4.881770681072242E-6</v>
       </c>
       <c r="F30" s="1">
-        <v>0.0001156490994116187</v>
+        <v>2.209472941919009E-3</v>
       </c>
       <c r="G30" s="1">
-        <v>0.002209472941919009</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>2.209472941919009E-3</v>
+      </c>
+      <c r="H30" s="1">
+        <v>10.28783560686685</v>
+      </c>
+      <c r="I30" s="1">
+        <v>39.770906784060223</v>
+      </c>
+      <c r="J30" s="1">
+        <v>-2.9698670850990028E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B31" s="1">
-        <v>-3.792060183423349E-05</v>
+        <v>-3.7920601834233487E-5</v>
       </c>
       <c r="C31" s="1">
-        <v>-0.01374593199044472</v>
+        <v>-1.374593199044472E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.0001309891535716238</v>
+        <v>1.3098915357162379E-4</v>
       </c>
       <c r="E31" s="1">
-        <v>0.04781104105364269</v>
+        <v>4.7811041053642693E-2</v>
       </c>
       <c r="F31" s="1">
-        <v>0.01144504930402765</v>
+        <v>0.21865735993476801</v>
       </c>
       <c r="G31" s="1">
-        <v>0.218657359934768</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.21865735993476801</v>
+      </c>
+      <c r="H31" s="1">
+        <v>-0.14061238093982811</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.18804336308322231</v>
+      </c>
+      <c r="J31" s="1">
+        <v>-6.0163695646831453E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
-        <v>7.639386277392222E-05</v>
+        <v>7.6393862773922223E-5</v>
       </c>
       <c r="C32" s="1">
-        <v>0.02827505543060793</v>
+        <v>2.8275055430607932E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.0001540963757229127</v>
+        <v>1.5409637572291271E-4</v>
       </c>
       <c r="E32" s="1">
-        <v>0.05624517713886313</v>
+        <v>5.624517713886313E-2</v>
       </c>
       <c r="F32" s="1">
-        <v>0.01241355612719066</v>
+        <v>0.2371606568106589</v>
       </c>
       <c r="G32" s="1">
         <v>0.2371606568106589</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="1">
+        <v>4.7541846030598391E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <v>7.7443394489097428E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <v>-3.6233165966919841E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B33" s="1">
-        <v>4.270119112240034E-05</v>
+        <v>4.2701191122400339E-5</v>
       </c>
       <c r="C33" s="1">
-        <v>0.01570769094692759</v>
+        <v>1.5707690946927588E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>0.0001266906435920642</v>
+        <v>1.2669064359206421E-4</v>
       </c>
       <c r="E33" s="1">
-        <v>0.04624208491110342</v>
+        <v>4.6242084911103418E-2</v>
       </c>
       <c r="F33" s="1">
-        <v>0.01125569382988291</v>
+        <v>0.21503972868077989</v>
       </c>
       <c r="G33" s="1">
-        <v>0.2150397286807799</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.21503972868077989</v>
+      </c>
+      <c r="H33" s="1">
+        <v>-6.009629295016492E-3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-7.915955499166653E-3</v>
+      </c>
+      <c r="J33" s="1">
+        <v>-4.3396644902429039E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B34" s="1">
-        <v>0.0001012676035384627</v>
+        <v>1.012676035384627E-4</v>
       </c>
       <c r="C34" s="1">
-        <v>0.03765234807138729</v>
+        <v>3.7652348071387287E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>1.164688653160453E-08</v>
+        <v>1.164688653160453E-8</v>
       </c>
       <c r="E34" s="1">
-        <v>4.251113584035652E-06</v>
+        <v>4.2511135840356516E-6</v>
       </c>
       <c r="F34" s="1">
-        <v>0.0001079207418970261</v>
+        <v>2.0618228789194412E-3</v>
       </c>
       <c r="G34" s="1">
-        <v>0.002061822878919441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>2.0618228789194412E-3</v>
+      </c>
+      <c r="H34" s="1">
+        <v>10.0165481150402</v>
+      </c>
+      <c r="I34" s="1">
+        <v>27.904507828621739</v>
+      </c>
+      <c r="J34" s="1">
+        <v>-3.0884525625114252E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B35" s="1">
-        <v>-0.00023883277986202</v>
+        <v>-2.3883277986202001E-4</v>
       </c>
       <c r="C35" s="1">
-        <v>-0.08349190232490622</v>
+        <v>-8.349190232490622E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>9.157936268949364E-05</v>
+        <v>9.1579362689493644E-5</v>
       </c>
       <c r="E35" s="1">
-        <v>0.03342646738166518</v>
+        <v>3.342646738166518E-2</v>
       </c>
       <c r="F35" s="1">
-        <v>0.009569710689957855</v>
+        <v>0.1828290660197803</v>
       </c>
       <c r="G35" s="1">
         <v>0.1828290660197803</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="1">
+        <v>-0.54964948688210213</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-0.74281245384518824</v>
+      </c>
+      <c r="J35" s="1">
+        <v>-9.9739826957026156E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1">
-        <v>0.0002053682396771927</v>
+        <v>2.0536823967719269E-4</v>
       </c>
       <c r="C36" s="1">
-        <v>0.07783210261938733</v>
+        <v>7.7832102619387333E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>0.000170665894300573</v>
+        <v>1.7066589430057299E-4</v>
       </c>
       <c r="E36" s="1">
-        <v>0.06229305141970914</v>
+        <v>6.2293051419709138E-2</v>
       </c>
       <c r="F36" s="1">
-        <v>0.01306391573382854</v>
+        <v>0.24958575964928201</v>
       </c>
       <c r="G36" s="1">
-        <v>0.249585759649282</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.24958575964928201</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0.24373226543400811</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0.30241098924350551</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-7.9335684568399446E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1">
-        <v>-7.559481218559335E-05</v>
+        <v>-7.5594812185593351E-5</v>
       </c>
       <c r="C37" s="1">
-        <v>-0.02721593592896721</v>
+        <v>-2.7215935928967209E-2</v>
       </c>
       <c r="D37" s="1">
-        <v>6.292856078075453E-05</v>
+        <v>6.2928560780754533E-5</v>
       </c>
       <c r="E37" s="1">
-        <v>0.0229689246849754</v>
+        <v>2.2968924684975401E-2</v>
       </c>
       <c r="F37" s="1">
-        <v>0.007932752408890279</v>
+        <v>0.1515550219721386</v>
       </c>
       <c r="G37" s="1">
         <v>0.1515550219721386</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="1">
+        <v>-0.29174840499245042</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.37674355551828859</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-6.7821348115264024E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1">
-        <v>7.750546303609083E-05</v>
+        <v>7.7505463036090831E-5</v>
       </c>
       <c r="C38" s="1">
-        <v>0.02869231421479923</v>
+        <v>2.869231421479923E-2</v>
       </c>
       <c r="D38" s="1">
-        <v>6.666210241765123E-09</v>
+        <v>6.6662102417651233E-9</v>
       </c>
       <c r="E38" s="1">
-        <v>2.43316673824427E-06</v>
+        <v>2.43316673824427E-6</v>
       </c>
       <c r="F38" s="1">
-        <v>8.164686302464488E-05</v>
+        <v>1.559861127871411E-3</v>
       </c>
       <c r="G38" s="1">
-        <v>0.001559861127871411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>1.559861127871411E-3</v>
+      </c>
+      <c r="H38" s="1">
+        <v>7.4957404898951374</v>
+      </c>
+      <c r="I38" s="1">
+        <v>29.276252128601548</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-3.5995232626760888E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1">
-        <v>-0.0001807154025927067</v>
+        <v>-1.807154025927067E-4</v>
       </c>
       <c r="C39" s="1">
-        <v>-0.06383832035671844</v>
+        <v>-6.3838320356718437E-2</v>
       </c>
       <c r="D39" s="1">
-        <v>0.0001034468926121228</v>
+        <v>1.034468926121228E-4</v>
       </c>
       <c r="E39" s="1">
-        <v>0.03775811580342482</v>
+        <v>3.7758115803424822E-2</v>
       </c>
       <c r="F39" s="1">
-        <v>0.01017088455406524</v>
+        <v>0.19431447656678799</v>
       </c>
       <c r="G39" s="1">
-        <v>0.194314476566788</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.19431447656678799</v>
+      </c>
+      <c r="H39" s="1">
+        <v>-0.41601800228678998</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-0.485547375004932</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-8.8606708597645037E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B40" s="1">
-        <v>0.0004939232876913106</v>
+        <v>4.9392328769131061E-4</v>
       </c>
       <c r="C40" s="1">
-        <v>0.1975017263416949</v>
+        <v>0.19750172634169491</v>
       </c>
       <c r="D40" s="1">
-        <v>0.0001198603379319393</v>
+        <v>1.198603379319393E-4</v>
       </c>
       <c r="E40" s="1">
-        <v>0.04374902334515783</v>
+        <v>4.3749023345157831E-2</v>
       </c>
       <c r="F40" s="1">
-        <v>0.0109480746221397</v>
+        <v>0.2091626719688717</v>
       </c>
       <c r="G40" s="1">
         <v>0.2091626719688717</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="1">
+        <v>0.86297294179029138</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1.2752211043374799</v>
+      </c>
+      <c r="J40" s="1">
+        <v>6.0718711531983431E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B41" s="1">
-        <v>0.0005302622692230281</v>
+        <v>5.3026226922302808E-4</v>
       </c>
       <c r="C41" s="1">
         <v>0.213482629134401</v>
       </c>
       <c r="D41" s="1">
-        <v>6.798465010461618E-05</v>
+        <v>6.7984650104616182E-5</v>
       </c>
       <c r="E41" s="1">
-        <v>0.0248143972881849</v>
+        <v>2.4814397288184901E-2</v>
       </c>
       <c r="F41" s="1">
-        <v>0.008245280474587641</v>
+        <v>0.1575258622835784</v>
       </c>
       <c r="G41" s="1">
         <v>0.1575258622835784</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="1">
+        <v>1.247303942896008</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.669625562460451</v>
+      </c>
+      <c r="J41" s="1">
+        <v>6.9917873004211539E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B42" s="1">
-        <v>5.847520485001446E-05</v>
+        <v>5.8475204850014459E-5</v>
       </c>
       <c r="C42" s="1">
-        <v>0.02157221288558619</v>
+        <v>2.1572212885586192E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>4.906251689030376E-09</v>
+        <v>4.906251689030376E-9</v>
       </c>
       <c r="E42" s="1">
-        <v>1.790781866496087E-06</v>
+        <v>1.790781866496087E-6</v>
       </c>
       <c r="F42" s="1">
-        <v>7.004464068742431E-05</v>
+        <v>1.3382009813537299E-3</v>
       </c>
       <c r="G42" s="1">
-        <v>0.00133820098135373</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1.3382009813537299E-3</v>
+      </c>
+      <c r="H42" s="1">
+        <v>3.4166862446632811</v>
+      </c>
+      <c r="I42" s="1">
+        <v>11.875412786069649</v>
+      </c>
+      <c r="J42" s="1">
+        <v>-4.0054507491063228E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1">
-        <v>-0.000868528896029396</v>
+        <v>-8.68528896029396E-4</v>
       </c>
       <c r="C43" s="1">
-        <v>-0.271779064728176</v>
+        <v>-0.27177906472817598</v>
       </c>
       <c r="D43" s="1">
-        <v>0.000297715510132134</v>
+        <v>2.9771551013213401E-4</v>
       </c>
       <c r="E43" s="1">
         <v>0.1086661611982289</v>
       </c>
       <c r="F43" s="1">
-        <v>0.0172544345062982</v>
+        <v>0.32964550838473278</v>
       </c>
       <c r="G43" s="1">
-        <v>0.3296455083847328</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.32964550838473278</v>
+      </c>
+      <c r="H43" s="1">
+        <v>-0.87602912032139368</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-0.91799503787431791</v>
+      </c>
+      <c r="J43" s="1">
+        <v>-0.2055273429408519</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B44" s="1">
-        <v>0.0002996250342261888</v>
+        <v>2.9962503422618881E-4</v>
       </c>
       <c r="C44" s="1">
         <v>0.1155491075183428</v>
       </c>
       <c r="D44" s="1">
-        <v>0.0001105034003281257</v>
+        <v>1.1050340032812571E-4</v>
       </c>
       <c r="E44" s="1">
-        <v>0.0403337411197659</v>
+        <v>4.0333741119765898E-2</v>
       </c>
       <c r="F44" s="1">
-        <v>0.01051205975668545</v>
+        <v>0.2008326196606664</v>
       </c>
       <c r="G44" s="1">
         <v>0.2008326196606664</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="1">
+        <v>0.49070269403872091</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0.59348484113009381</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.365770480941819E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B45" s="1">
-        <v>0.0005155769519078273</v>
+        <v>5.1557695190782731E-4</v>
       </c>
       <c r="C45" s="1">
-        <v>0.206998973957754</v>
+        <v>0.20699897395775399</v>
       </c>
       <c r="D45" s="1">
-        <v>8.924631533514318E-05</v>
+        <v>8.9246315335143176E-5</v>
       </c>
       <c r="E45" s="1">
-        <v>0.03257490509732726</v>
+        <v>3.2574905097327259E-2</v>
       </c>
       <c r="F45" s="1">
-        <v>0.009447026798688737</v>
+        <v>0.1804851935681353</v>
       </c>
       <c r="G45" s="1">
         <v>0.1804851935681353</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="1">
+        <v>1.052712248586902</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.3091518507497411</v>
+      </c>
+      <c r="J45" s="1">
+        <v>6.6184814469643291E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1">
-        <v>6.495818487027632E-05</v>
+        <v>6.4958184870276325E-5</v>
       </c>
       <c r="C46" s="1">
-        <v>0.0239922594318962</v>
+        <v>2.3992259431896201E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>2.961102240236099E-09</v>
+        <v>2.9611022402360989E-9</v>
       </c>
       <c r="E46" s="1">
-        <v>1.080802317686176E-06</v>
+        <v>1.080802317686176E-6</v>
       </c>
       <c r="F46" s="1">
-        <v>5.441601088132149E-05</v>
+        <v>1.039616428153276E-3</v>
       </c>
       <c r="G46" s="1">
-        <v>0.001039616428153276</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>1.039616428153276E-3</v>
+      </c>
+      <c r="H46" s="1">
+        <v>6.7258069827897078</v>
+      </c>
+      <c r="I46" s="1">
+        <v>21.95164064351021</v>
+      </c>
+      <c r="J46" s="1">
+        <v>-3.8674998620479732E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1">
-        <v>0.002314958764425343</v>
+        <v>2.3149587644253431E-3</v>
       </c>
       <c r="C47" s="1">
         <v>1.325612469451489</v>
       </c>
       <c r="D47" s="1">
-        <v>6.368068855748886E-05</v>
+        <v>6.3680688557488858E-5</v>
       </c>
       <c r="E47" s="1">
-        <v>0.02324345132348343</v>
+        <v>2.3243451323483429E-2</v>
       </c>
       <c r="F47" s="1">
-        <v>0.00798001808002268</v>
+        <v>0.15245803135119981</v>
       </c>
       <c r="G47" s="1">
-        <v>0.1524580313511998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.15245803135119981</v>
+      </c>
+      <c r="H47" s="1">
+        <v>8.5834275692370117</v>
+      </c>
+      <c r="I47" s="1">
+        <v>15.650014405816391</v>
+      </c>
+      <c r="J47" s="1">
+        <v>0.72255860260903271</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B48" s="1">
-        <v>0.001474714206769709</v>
+        <v>1.474714206769709E-3</v>
       </c>
       <c r="C48" s="1">
-        <v>0.7123628109199442</v>
+        <v>0.71236281091994424</v>
       </c>
       <c r="D48" s="1">
-        <v>8.023825440833376E-05</v>
+        <v>8.0238254408333755E-5</v>
       </c>
       <c r="E48" s="1">
-        <v>0.02928696285904182</v>
+        <v>2.928696285904182E-2</v>
       </c>
       <c r="F48" s="1">
-        <v>0.00895758083459668</v>
+        <v>0.1711343415537683</v>
       </c>
       <c r="G48" s="1">
         <v>0.1711343415537683</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="1">
+        <v>4.0632569980202948</v>
+      </c>
+      <c r="I48" s="1">
+        <v>6.2969044566592602</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.36006509731882802</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" s="1">
-        <v>-0.0004696827036180385</v>
+        <v>-4.6968270361803847E-4</v>
       </c>
       <c r="C49" s="1">
-        <v>-0.1575782161852524</v>
+        <v>-0.15757821618525239</v>
       </c>
       <c r="D49" s="1">
-        <v>5.823060245127219E-05</v>
+        <v>5.8230602451272188E-5</v>
       </c>
       <c r="E49" s="1">
-        <v>0.02125416989471435</v>
+        <v>2.1254169894714351E-2</v>
       </c>
       <c r="F49" s="1">
-        <v>0.007630897879756496</v>
+        <v>0.14578809929042341</v>
       </c>
       <c r="G49" s="1">
-        <v>0.1457880992904234</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.14578809929042341</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-1.1974791977874439</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-1.5097587132401591</v>
+      </c>
+      <c r="J49" s="1">
+        <v>-0.1415630149791697</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50" s="1">
-        <v>5.934352269217453E-05</v>
+        <v>5.9343522692174527E-5</v>
       </c>
       <c r="C50" s="1">
-        <v>0.02189601814397424</v>
+        <v>2.1896018143974239E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>3.8255937348855E-09</v>
+        <v>3.8255937348854996E-9</v>
       </c>
       <c r="E50" s="1">
-        <v>1.396341713233208E-06</v>
+        <v>1.396341713233208E-6</v>
       </c>
       <c r="F50" s="1">
-        <v>6.185138426005921E-05</v>
+        <v>1.1816690370967701E-3</v>
       </c>
       <c r="G50" s="1">
-        <v>0.00118166903709677</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>1.1816690370967701E-3</v>
+      </c>
+      <c r="H50" s="1">
+        <v>4.1433074661947744</v>
+      </c>
+      <c r="I50" s="1">
+        <v>14.37894450379882</v>
+      </c>
+      <c r="J50" s="1">
+        <v>-3.9869939173279988E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B51" s="1">
-        <v>0.001236988886400867</v>
+        <v>1.236988886400867E-3</v>
       </c>
       <c r="C51" s="1">
-        <v>0.5702297131803344</v>
+        <v>0.57022971318033444</v>
       </c>
       <c r="D51" s="1">
-        <v>0.0002068411880055648</v>
+        <v>2.0684118800556479E-4</v>
       </c>
       <c r="E51" s="1">
-        <v>0.07549703362203115</v>
+        <v>7.5497033622031154E-2</v>
       </c>
       <c r="F51" s="1">
-        <v>0.01438197441263072</v>
+        <v>0.27476723535027092</v>
       </c>
       <c r="G51" s="1">
-        <v>0.2747672353502709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.27476723535027092</v>
+      </c>
+      <c r="H51" s="1">
+        <v>2.0134486285276409</v>
+      </c>
+      <c r="I51" s="1">
+        <v>2.418012292346742</v>
+      </c>
+      <c r="J51" s="1">
+        <v>0.27687990535080392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B52" s="1">
-        <v>-0.0003413627164267353</v>
+        <v>-3.4136271642673532E-4</v>
       </c>
       <c r="C52" s="1">
-        <v>-0.1171665043339497</v>
+        <v>-0.11716650433394971</v>
       </c>
       <c r="D52" s="1">
-        <v>0.0001065862952257275</v>
+        <v>1.065862952257275E-4</v>
       </c>
       <c r="E52" s="1">
-        <v>0.03890399775739053</v>
+        <v>3.8903997757390528E-2</v>
       </c>
       <c r="F52" s="1">
-        <v>0.01032406389101344</v>
+        <v>0.19724096369007771</v>
       </c>
       <c r="G52" s="1">
-        <v>0.1972409636900777</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.19724096369007771</v>
+      </c>
+      <c r="H52" s="1">
+        <v>-0.68021622802839232</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-0.92412440698578535</v>
+      </c>
+      <c r="J52" s="1">
+        <v>-0.1187789074060181</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B53" s="1">
-        <v>4.592725134480433E-05</v>
+        <v>4.5927251344804327E-5</v>
       </c>
       <c r="C53" s="1">
-        <v>0.01690435029550619</v>
+        <v>1.6904350295506191E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>5.22975503112075E-05</v>
+        <v>5.2297550311207503E-5</v>
       </c>
       <c r="E53" s="1">
-        <v>0.01908860586359074</v>
+        <v>1.9088605863590739E-2</v>
       </c>
       <c r="F53" s="1">
-        <v>0.007231704523223242</v>
+        <v>0.13816152092239989</v>
       </c>
       <c r="G53" s="1">
-        <v>0.1381615209223999</v>
+        <v>0.13816152092239989</v>
+      </c>
+      <c r="H53" s="1">
+        <v>-6.9230349995594331E-4</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-8.7569759056420847E-4</v>
+      </c>
+      <c r="J53" s="1">
+        <v>-4.2714776536304171E-2</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>